--- a/timetabling_GA/results/HK1_CT03/TKB_HocKy_PhongHoc.xlsx
+++ b/timetabling_GA/results/HK1_CT03/TKB_HocKy_PhongHoc.xlsx
@@ -506,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -598,8 +598,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -608,8 +608,36 @@
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL05
+Môn: Tiếng Anh chuyên ngành
+GV: Võ Văn F
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL05
 Môn: Kỹ năng mềm
@@ -617,16 +645,7 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL05
-Môn: Tiếng Anh chuyên ngành
-GV: Võ Văn F
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -645,7 +664,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -737,8 +756,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -747,8 +766,36 @@
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL05
+Môn: Tiếng Anh chuyên ngành
+GV: Võ Văn F
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL05
 Môn: Kỹ năng mềm
@@ -756,16 +803,7 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL05
-Môn: Tiếng Anh chuyên ngành
-GV: Võ Văn F
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -784,7 +822,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -876,8 +914,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -886,8 +924,36 @@
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL05
+Môn: Tiếng Anh chuyên ngành
+GV: Võ Văn F
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL05
 Môn: Kỹ năng mềm
@@ -895,16 +961,7 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL05
-Môn: Tiếng Anh chuyên ngành
-GV: Võ Văn F
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -923,7 +980,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1015,8 +1072,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1025,8 +1082,36 @@
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL05
+Môn: Tiếng Anh chuyên ngành
+GV: Võ Văn F
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL05
 Môn: Kỹ năng mềm
@@ -1034,16 +1119,7 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL05
-Môn: Tiếng Anh chuyên ngành
-GV: Võ Văn F
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1062,7 +1138,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1154,8 +1230,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1164,8 +1240,36 @@
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL05
+Môn: Tiếng Anh chuyên ngành
+GV: Võ Văn F
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL05
 Môn: Kỹ năng mềm
@@ -1173,16 +1277,7 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL05
-Môn: Tiếng Anh chuyên ngành
-GV: Võ Văn F
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1201,7 +1296,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1293,8 +1388,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1303,8 +1398,36 @@
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL05
+Môn: Tiếng Anh chuyên ngành
+GV: Võ Văn F
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL05
 Môn: Kỹ năng mềm
@@ -1312,16 +1435,7 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL05
-Môn: Tiếng Anh chuyên ngành
-GV: Võ Văn F
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1340,7 +1454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1432,8 +1546,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1442,8 +1556,36 @@
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL05
+Môn: Tiếng Anh chuyên ngành
+GV: Võ Văn F
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL05
 Môn: Kỹ năng mềm
@@ -1451,16 +1593,7 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL05
-Môn: Tiếng Anh chuyên ngành
-GV: Võ Văn F
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1479,7 +1612,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1571,8 +1704,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1581,8 +1714,36 @@
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL05
+Môn: Tiếng Anh chuyên ngành
+GV: Võ Văn F
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL05
 Môn: Kỹ năng mềm
@@ -1590,16 +1751,7 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL05
-Môn: Tiếng Anh chuyên ngành
-GV: Võ Văn F
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1618,7 +1770,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1710,8 +1862,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1720,8 +1872,36 @@
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL05
+Môn: Tiếng Anh chuyên ngành
+GV: Võ Văn F
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL05
 Môn: Kỹ năng mềm
@@ -1729,16 +1909,7 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL05
-Môn: Tiếng Anh chuyên ngành
-GV: Võ Văn F
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1757,7 +1928,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1849,8 +2020,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1859,8 +2030,36 @@
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL05
+Môn: Tiếng Anh chuyên ngành
+GV: Võ Văn F
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL05
 Môn: Kỹ năng mềm
@@ -1868,16 +2067,7 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL05
-Môn: Tiếng Anh chuyên ngành
-GV: Võ Văn F
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1896,7 +2086,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1988,8 +2178,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1998,8 +2188,36 @@
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL05
+Môn: Tiếng Anh chuyên ngành
+GV: Võ Văn F
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL05
 Môn: Kỹ năng mềm
@@ -2007,16 +2225,7 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL05
-Môn: Tiếng Anh chuyên ngành
-GV: Võ Văn F
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2035,7 +2244,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2127,8 +2336,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -2137,8 +2346,36 @@
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL05
+Môn: Tiếng Anh chuyên ngành
+GV: Võ Văn F
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL05
 Môn: Kỹ năng mềm
@@ -2146,16 +2383,7 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL05
-Môn: Tiếng Anh chuyên ngành
-GV: Võ Văn F
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2174,7 +2402,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2266,8 +2494,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -2276,8 +2504,36 @@
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL05
+Môn: Tiếng Anh chuyên ngành
+GV: Võ Văn F
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL05
 Môn: Kỹ năng mềm
@@ -2285,16 +2541,7 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL05
-Môn: Tiếng Anh chuyên ngành
-GV: Võ Văn F
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2313,7 +2560,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2405,8 +2652,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -2415,8 +2662,36 @@
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL05
+Môn: Tiếng Anh chuyên ngành
+GV: Võ Văn F
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL05
 Môn: Kỹ năng mềm
@@ -2424,16 +2699,7 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL05
-Môn: Tiếng Anh chuyên ngành
-GV: Võ Văn F
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2452,7 +2718,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2544,8 +2810,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -2554,8 +2820,36 @@
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL05
+Môn: Tiếng Anh chuyên ngành
+GV: Võ Văn F
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL05
 Môn: Kỹ năng mềm
@@ -2563,16 +2857,7 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL05
-Môn: Tiếng Anh chuyên ngành
-GV: Võ Văn F
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/timetabling_GA/results/HK1_CT03/TKB_HocKy_PhongHoc.xlsx
+++ b/timetabling_GA/results/HK1_CT03/TKB_HocKy_PhongHoc.xlsx
@@ -115,7 +115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -141,6 +141,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -506,7 +507,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -598,46 +599,66 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL05
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL10
 Môn: Tiếng Anh chuyên ngành
 GV: Võ Văn F
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R105</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="8" t="inlineStr">
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL05
+Môn: Tiếng Anh chuyên ngành
+GV: Võ Văn F
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>R103</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="inlineStr"/>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL05
 Môn: Kỹ năng mềm
@@ -645,7 +666,34 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="H9" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr"/>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL10
+Môn: Kỹ năng mềm
+GV: Ngô Văn I
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H11" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -664,7 +712,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -756,46 +804,66 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL05
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL10
 Môn: Tiếng Anh chuyên ngành
 GV: Võ Văn F
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R105</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="8" t="inlineStr">
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL05
+Môn: Tiếng Anh chuyên ngành
+GV: Võ Văn F
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>R103</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="inlineStr"/>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL05
 Môn: Kỹ năng mềm
@@ -803,7 +871,34 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="H9" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr"/>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL10
+Môn: Kỹ năng mềm
+GV: Ngô Văn I
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H11" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -822,7 +917,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -914,46 +1009,66 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL05
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL10
 Môn: Tiếng Anh chuyên ngành
 GV: Võ Văn F
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R105</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="8" t="inlineStr">
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL05
+Môn: Tiếng Anh chuyên ngành
+GV: Võ Văn F
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>R103</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="inlineStr"/>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL05
 Môn: Kỹ năng mềm
@@ -961,7 +1076,34 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="H9" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr"/>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL10
+Môn: Kỹ năng mềm
+GV: Ngô Văn I
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H11" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -980,7 +1122,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1072,46 +1214,66 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL05
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL10
 Môn: Tiếng Anh chuyên ngành
 GV: Võ Văn F
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R105</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="8" t="inlineStr">
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL05
+Môn: Tiếng Anh chuyên ngành
+GV: Võ Văn F
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>R103</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="inlineStr"/>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL05
 Môn: Kỹ năng mềm
@@ -1119,7 +1281,34 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="H9" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr"/>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL10
+Môn: Kỹ năng mềm
+GV: Ngô Văn I
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H11" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1138,7 +1327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1230,46 +1419,66 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL05
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL10
 Môn: Tiếng Anh chuyên ngành
 GV: Võ Văn F
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R105</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="8" t="inlineStr">
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL05
+Môn: Tiếng Anh chuyên ngành
+GV: Võ Văn F
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>R103</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="inlineStr"/>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL05
 Môn: Kỹ năng mềm
@@ -1277,7 +1486,34 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="H9" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr"/>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL10
+Môn: Kỹ năng mềm
+GV: Ngô Văn I
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H11" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1296,7 +1532,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1388,46 +1624,66 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL05
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL10
 Môn: Tiếng Anh chuyên ngành
 GV: Võ Văn F
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R105</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="8" t="inlineStr">
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL05
+Môn: Tiếng Anh chuyên ngành
+GV: Võ Văn F
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>R103</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="inlineStr"/>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL05
 Môn: Kỹ năng mềm
@@ -1435,7 +1691,34 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="H9" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr"/>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL10
+Môn: Kỹ năng mềm
+GV: Ngô Văn I
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H11" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1454,7 +1737,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1546,46 +1829,66 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL05
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL10
 Môn: Tiếng Anh chuyên ngành
 GV: Võ Văn F
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R105</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="8" t="inlineStr">
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL05
+Môn: Tiếng Anh chuyên ngành
+GV: Võ Văn F
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>R103</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="inlineStr"/>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL05
 Môn: Kỹ năng mềm
@@ -1593,7 +1896,34 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="H9" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr"/>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL10
+Môn: Kỹ năng mềm
+GV: Ngô Văn I
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H11" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1612,7 +1942,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1704,46 +2034,66 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL05
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL10
 Môn: Tiếng Anh chuyên ngành
 GV: Võ Văn F
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R105</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="8" t="inlineStr">
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL05
+Môn: Tiếng Anh chuyên ngành
+GV: Võ Văn F
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>R103</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="inlineStr"/>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL05
 Môn: Kỹ năng mềm
@@ -1751,7 +2101,34 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="H9" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr"/>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL10
+Môn: Kỹ năng mềm
+GV: Ngô Văn I
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H11" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1770,7 +2147,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1862,46 +2239,66 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL05
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL10
 Môn: Tiếng Anh chuyên ngành
 GV: Võ Văn F
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R105</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="8" t="inlineStr">
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL05
+Môn: Tiếng Anh chuyên ngành
+GV: Võ Văn F
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>R103</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="inlineStr"/>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL05
 Môn: Kỹ năng mềm
@@ -1909,7 +2306,34 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="H9" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr"/>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL10
+Môn: Kỹ năng mềm
+GV: Ngô Văn I
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H11" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1928,7 +2352,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2020,46 +2444,66 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL05
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL10
 Môn: Tiếng Anh chuyên ngành
 GV: Võ Văn F
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R105</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="8" t="inlineStr">
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL05
+Môn: Tiếng Anh chuyên ngành
+GV: Võ Văn F
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>R103</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="inlineStr"/>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL05
 Môn: Kỹ năng mềm
@@ -2067,7 +2511,34 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="H9" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr"/>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL10
+Môn: Kỹ năng mềm
+GV: Ngô Văn I
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H11" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2086,7 +2557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2178,46 +2649,66 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL05
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL10
 Môn: Tiếng Anh chuyên ngành
 GV: Võ Văn F
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R105</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="8" t="inlineStr">
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL05
+Môn: Tiếng Anh chuyên ngành
+GV: Võ Văn F
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>R103</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="inlineStr"/>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL05
 Môn: Kỹ năng mềm
@@ -2225,7 +2716,34 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="H9" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr"/>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL10
+Môn: Kỹ năng mềm
+GV: Ngô Văn I
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H11" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2244,7 +2762,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2336,46 +2854,66 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL05
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL10
 Môn: Tiếng Anh chuyên ngành
 GV: Võ Văn F
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R105</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="8" t="inlineStr">
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL05
+Môn: Tiếng Anh chuyên ngành
+GV: Võ Văn F
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>R103</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="inlineStr"/>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL05
 Môn: Kỹ năng mềm
@@ -2383,7 +2921,34 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="H9" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr"/>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL10
+Môn: Kỹ năng mềm
+GV: Ngô Văn I
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H11" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2402,7 +2967,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2494,46 +3059,66 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL05
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL10
 Môn: Tiếng Anh chuyên ngành
 GV: Võ Văn F
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R105</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="8" t="inlineStr">
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL05
+Môn: Tiếng Anh chuyên ngành
+GV: Võ Văn F
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>R103</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="inlineStr"/>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL05
 Môn: Kỹ năng mềm
@@ -2541,7 +3126,34 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="H9" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr"/>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL10
+Môn: Kỹ năng mềm
+GV: Ngô Văn I
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H11" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2560,7 +3172,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2652,46 +3264,66 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL05
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL10
 Môn: Tiếng Anh chuyên ngành
 GV: Võ Văn F
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R105</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="8" t="inlineStr">
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL05
+Môn: Tiếng Anh chuyên ngành
+GV: Võ Văn F
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>R103</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="inlineStr"/>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL05
 Môn: Kỹ năng mềm
@@ -2699,7 +3331,34 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="H9" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr"/>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL10
+Môn: Kỹ năng mềm
+GV: Ngô Văn I
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H11" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2718,7 +3377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2810,46 +3469,66 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL05
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL10
 Môn: Tiếng Anh chuyên ngành
 GV: Võ Văn F
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R105</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="8" t="inlineStr">
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL05
+Môn: Tiếng Anh chuyên ngành
+GV: Võ Văn F
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>R103</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="inlineStr"/>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL05
 Môn: Kỹ năng mềm
@@ -2857,7 +3536,34 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="H9" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr"/>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL10
+Môn: Kỹ năng mềm
+GV: Ngô Văn I
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H11" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/timetabling_GA/results/HK1_CT03/TKB_HocKy_PhongHoc.xlsx
+++ b/timetabling_GA/results/HK1_CT03/TKB_HocKy_PhongHoc.xlsx
@@ -605,21 +605,21 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL05
+Môn: Kỹ năng mềm
+GV: Hoàng Thị E
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL10
-Môn: Tiếng Anh chuyên ngành
-GV: Võ Văn F
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
     <row r="9">
@@ -638,7 +638,7 @@
         <is>
           <t>Lớp: CL05
 Môn: Tiếng Anh chuyên ngành
-GV: Võ Văn F
+GV: Hoàng Thị E
 (Lý thuyết)</t>
         </is>
       </c>
@@ -646,8 +646,8 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -658,15 +658,15 @@
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL05
-Môn: Kỹ năng mềm
-GV: Hoàng Thị E
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL10
+Môn: Tiếng Anh chuyên ngành
+GV: Hoàng Thị E
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
@@ -678,7 +678,7 @@
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
@@ -689,7 +689,7 @@
         <is>
           <t>Lớp: CL10
 Môn: Kỹ năng mềm
-GV: Ngô Văn I
+GV: Hoàng Thị E
 (Lý thuyết)</t>
         </is>
       </c>
@@ -810,21 +810,21 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL05
+Môn: Kỹ năng mềm
+GV: Hoàng Thị E
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL10
-Môn: Tiếng Anh chuyên ngành
-GV: Võ Văn F
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
     <row r="9">
@@ -843,7 +843,7 @@
         <is>
           <t>Lớp: CL05
 Môn: Tiếng Anh chuyên ngành
-GV: Võ Văn F
+GV: Hoàng Thị E
 (Lý thuyết)</t>
         </is>
       </c>
@@ -851,8 +851,8 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -863,15 +863,15 @@
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL05
-Môn: Kỹ năng mềm
-GV: Hoàng Thị E
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL10
+Môn: Tiếng Anh chuyên ngành
+GV: Hoàng Thị E
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
@@ -883,7 +883,7 @@
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
@@ -894,7 +894,7 @@
         <is>
           <t>Lớp: CL10
 Môn: Kỹ năng mềm
-GV: Ngô Văn I
+GV: Hoàng Thị E
 (Lý thuyết)</t>
         </is>
       </c>
@@ -1015,21 +1015,21 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL05
+Môn: Kỹ năng mềm
+GV: Hoàng Thị E
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL10
-Môn: Tiếng Anh chuyên ngành
-GV: Võ Văn F
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
     <row r="9">
@@ -1048,7 +1048,7 @@
         <is>
           <t>Lớp: CL05
 Môn: Tiếng Anh chuyên ngành
-GV: Võ Văn F
+GV: Hoàng Thị E
 (Lý thuyết)</t>
         </is>
       </c>
@@ -1056,8 +1056,8 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -1068,15 +1068,15 @@
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL05
-Môn: Kỹ năng mềm
-GV: Hoàng Thị E
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL10
+Môn: Tiếng Anh chuyên ngành
+GV: Hoàng Thị E
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
         <is>
           <t>Lớp: CL10
 Môn: Kỹ năng mềm
-GV: Ngô Văn I
+GV: Hoàng Thị E
 (Lý thuyết)</t>
         </is>
       </c>
@@ -1220,21 +1220,21 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL05
+Môn: Kỹ năng mềm
+GV: Hoàng Thị E
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL10
-Môn: Tiếng Anh chuyên ngành
-GV: Võ Văn F
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
     <row r="9">
@@ -1253,7 +1253,7 @@
         <is>
           <t>Lớp: CL05
 Môn: Tiếng Anh chuyên ngành
-GV: Võ Văn F
+GV: Hoàng Thị E
 (Lý thuyết)</t>
         </is>
       </c>
@@ -1261,8 +1261,8 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -1273,15 +1273,15 @@
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL05
-Môn: Kỹ năng mềm
-GV: Hoàng Thị E
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL10
+Môn: Tiếng Anh chuyên ngành
+GV: Hoàng Thị E
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
@@ -1304,7 +1304,7 @@
         <is>
           <t>Lớp: CL10
 Môn: Kỹ năng mềm
-GV: Ngô Văn I
+GV: Hoàng Thị E
 (Lý thuyết)</t>
         </is>
       </c>
@@ -1425,21 +1425,21 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL05
+Môn: Kỹ năng mềm
+GV: Hoàng Thị E
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL10
-Môn: Tiếng Anh chuyên ngành
-GV: Võ Văn F
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
     <row r="9">
@@ -1458,7 +1458,7 @@
         <is>
           <t>Lớp: CL05
 Môn: Tiếng Anh chuyên ngành
-GV: Võ Văn F
+GV: Hoàng Thị E
 (Lý thuyết)</t>
         </is>
       </c>
@@ -1466,8 +1466,8 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -1478,15 +1478,15 @@
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL05
-Môn: Kỹ năng mềm
-GV: Hoàng Thị E
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL10
+Môn: Tiếng Anh chuyên ngành
+GV: Hoàng Thị E
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
@@ -1498,7 +1498,7 @@
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
@@ -1509,7 +1509,7 @@
         <is>
           <t>Lớp: CL10
 Môn: Kỹ năng mềm
-GV: Ngô Văn I
+GV: Hoàng Thị E
 (Lý thuyết)</t>
         </is>
       </c>
@@ -1630,21 +1630,21 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL05
+Môn: Kỹ năng mềm
+GV: Hoàng Thị E
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL10
-Môn: Tiếng Anh chuyên ngành
-GV: Võ Văn F
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
     <row r="9">
@@ -1663,7 +1663,7 @@
         <is>
           <t>Lớp: CL05
 Môn: Tiếng Anh chuyên ngành
-GV: Võ Văn F
+GV: Hoàng Thị E
 (Lý thuyết)</t>
         </is>
       </c>
@@ -1671,8 +1671,8 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -1683,15 +1683,15 @@
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL05
-Môn: Kỹ năng mềm
-GV: Hoàng Thị E
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL10
+Môn: Tiếng Anh chuyên ngành
+GV: Hoàng Thị E
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
@@ -1703,7 +1703,7 @@
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
@@ -1714,7 +1714,7 @@
         <is>
           <t>Lớp: CL10
 Môn: Kỹ năng mềm
-GV: Ngô Văn I
+GV: Hoàng Thị E
 (Lý thuyết)</t>
         </is>
       </c>
@@ -1835,21 +1835,21 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL05
+Môn: Kỹ năng mềm
+GV: Hoàng Thị E
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL10
-Môn: Tiếng Anh chuyên ngành
-GV: Võ Văn F
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
     <row r="9">
@@ -1868,7 +1868,7 @@
         <is>
           <t>Lớp: CL05
 Môn: Tiếng Anh chuyên ngành
-GV: Võ Văn F
+GV: Hoàng Thị E
 (Lý thuyết)</t>
         </is>
       </c>
@@ -1876,8 +1876,8 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -1888,15 +1888,15 @@
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL05
-Môn: Kỹ năng mềm
-GV: Hoàng Thị E
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL10
+Môn: Tiếng Anh chuyên ngành
+GV: Hoàng Thị E
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
@@ -1908,7 +1908,7 @@
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
@@ -1919,7 +1919,7 @@
         <is>
           <t>Lớp: CL10
 Môn: Kỹ năng mềm
-GV: Ngô Văn I
+GV: Hoàng Thị E
 (Lý thuyết)</t>
         </is>
       </c>
@@ -2040,21 +2040,21 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL05
+Môn: Kỹ năng mềm
+GV: Hoàng Thị E
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL10
-Môn: Tiếng Anh chuyên ngành
-GV: Võ Văn F
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
     <row r="9">
@@ -2073,7 +2073,7 @@
         <is>
           <t>Lớp: CL05
 Môn: Tiếng Anh chuyên ngành
-GV: Võ Văn F
+GV: Hoàng Thị E
 (Lý thuyết)</t>
         </is>
       </c>
@@ -2081,8 +2081,8 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -2093,15 +2093,15 @@
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL05
-Môn: Kỹ năng mềm
-GV: Hoàng Thị E
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL10
+Môn: Tiếng Anh chuyên ngành
+GV: Hoàng Thị E
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
@@ -2113,7 +2113,7 @@
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
@@ -2124,7 +2124,7 @@
         <is>
           <t>Lớp: CL10
 Môn: Kỹ năng mềm
-GV: Ngô Văn I
+GV: Hoàng Thị E
 (Lý thuyết)</t>
         </is>
       </c>
@@ -2245,21 +2245,21 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL05
+Môn: Kỹ năng mềm
+GV: Hoàng Thị E
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL10
-Môn: Tiếng Anh chuyên ngành
-GV: Võ Văn F
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
     <row r="9">
@@ -2278,7 +2278,7 @@
         <is>
           <t>Lớp: CL05
 Môn: Tiếng Anh chuyên ngành
-GV: Võ Văn F
+GV: Hoàng Thị E
 (Lý thuyết)</t>
         </is>
       </c>
@@ -2286,8 +2286,8 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -2298,15 +2298,15 @@
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL05
-Môn: Kỹ năng mềm
-GV: Hoàng Thị E
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL10
+Môn: Tiếng Anh chuyên ngành
+GV: Hoàng Thị E
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
@@ -2318,7 +2318,7 @@
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
@@ -2329,7 +2329,7 @@
         <is>
           <t>Lớp: CL10
 Môn: Kỹ năng mềm
-GV: Ngô Văn I
+GV: Hoàng Thị E
 (Lý thuyết)</t>
         </is>
       </c>
@@ -2450,21 +2450,21 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL05
+Môn: Kỹ năng mềm
+GV: Hoàng Thị E
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL10
-Môn: Tiếng Anh chuyên ngành
-GV: Võ Văn F
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
     <row r="9">
@@ -2483,7 +2483,7 @@
         <is>
           <t>Lớp: CL05
 Môn: Tiếng Anh chuyên ngành
-GV: Võ Văn F
+GV: Hoàng Thị E
 (Lý thuyết)</t>
         </is>
       </c>
@@ -2491,8 +2491,8 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -2503,15 +2503,15 @@
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL05
-Môn: Kỹ năng mềm
-GV: Hoàng Thị E
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL10
+Môn: Tiếng Anh chuyên ngành
+GV: Hoàng Thị E
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
@@ -2534,7 +2534,7 @@
         <is>
           <t>Lớp: CL10
 Môn: Kỹ năng mềm
-GV: Ngô Văn I
+GV: Hoàng Thị E
 (Lý thuyết)</t>
         </is>
       </c>
@@ -2655,21 +2655,21 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL05
+Môn: Kỹ năng mềm
+GV: Hoàng Thị E
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL10
-Môn: Tiếng Anh chuyên ngành
-GV: Võ Văn F
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
     <row r="9">
@@ -2688,7 +2688,7 @@
         <is>
           <t>Lớp: CL05
 Môn: Tiếng Anh chuyên ngành
-GV: Võ Văn F
+GV: Hoàng Thị E
 (Lý thuyết)</t>
         </is>
       </c>
@@ -2696,8 +2696,8 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -2708,15 +2708,15 @@
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL05
-Môn: Kỹ năng mềm
-GV: Hoàng Thị E
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL10
+Môn: Tiếng Anh chuyên ngành
+GV: Hoàng Thị E
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
@@ -2739,7 +2739,7 @@
         <is>
           <t>Lớp: CL10
 Môn: Kỹ năng mềm
-GV: Ngô Văn I
+GV: Hoàng Thị E
 (Lý thuyết)</t>
         </is>
       </c>
@@ -2860,21 +2860,21 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL05
+Môn: Kỹ năng mềm
+GV: Hoàng Thị E
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL10
-Môn: Tiếng Anh chuyên ngành
-GV: Võ Văn F
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
     <row r="9">
@@ -2893,7 +2893,7 @@
         <is>
           <t>Lớp: CL05
 Môn: Tiếng Anh chuyên ngành
-GV: Võ Văn F
+GV: Hoàng Thị E
 (Lý thuyết)</t>
         </is>
       </c>
@@ -2901,8 +2901,8 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -2913,15 +2913,15 @@
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL05
-Môn: Kỹ năng mềm
-GV: Hoàng Thị E
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL10
+Môn: Tiếng Anh chuyên ngành
+GV: Hoàng Thị E
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
@@ -2933,7 +2933,7 @@
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
@@ -2944,7 +2944,7 @@
         <is>
           <t>Lớp: CL10
 Môn: Kỹ năng mềm
-GV: Ngô Văn I
+GV: Hoàng Thị E
 (Lý thuyết)</t>
         </is>
       </c>
@@ -3065,21 +3065,21 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL05
+Môn: Kỹ năng mềm
+GV: Hoàng Thị E
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL10
-Môn: Tiếng Anh chuyên ngành
-GV: Võ Văn F
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
     <row r="9">
@@ -3098,7 +3098,7 @@
         <is>
           <t>Lớp: CL05
 Môn: Tiếng Anh chuyên ngành
-GV: Võ Văn F
+GV: Hoàng Thị E
 (Lý thuyết)</t>
         </is>
       </c>
@@ -3106,8 +3106,8 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -3118,15 +3118,15 @@
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL05
-Môn: Kỹ năng mềm
-GV: Hoàng Thị E
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL10
+Môn: Tiếng Anh chuyên ngành
+GV: Hoàng Thị E
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
@@ -3138,7 +3138,7 @@
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
@@ -3149,7 +3149,7 @@
         <is>
           <t>Lớp: CL10
 Môn: Kỹ năng mềm
-GV: Ngô Văn I
+GV: Hoàng Thị E
 (Lý thuyết)</t>
         </is>
       </c>
@@ -3270,21 +3270,21 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL05
+Môn: Kỹ năng mềm
+GV: Hoàng Thị E
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL10
-Môn: Tiếng Anh chuyên ngành
-GV: Võ Văn F
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
     <row r="9">
@@ -3303,7 +3303,7 @@
         <is>
           <t>Lớp: CL05
 Môn: Tiếng Anh chuyên ngành
-GV: Võ Văn F
+GV: Hoàng Thị E
 (Lý thuyết)</t>
         </is>
       </c>
@@ -3311,8 +3311,8 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -3323,15 +3323,15 @@
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL05
-Môn: Kỹ năng mềm
-GV: Hoàng Thị E
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL10
+Môn: Tiếng Anh chuyên ngành
+GV: Hoàng Thị E
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
@@ -3343,7 +3343,7 @@
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
@@ -3354,7 +3354,7 @@
         <is>
           <t>Lớp: CL10
 Môn: Kỹ năng mềm
-GV: Ngô Văn I
+GV: Hoàng Thị E
 (Lý thuyết)</t>
         </is>
       </c>
@@ -3475,21 +3475,21 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL05
+Môn: Kỹ năng mềm
+GV: Hoàng Thị E
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL10
-Môn: Tiếng Anh chuyên ngành
-GV: Võ Văn F
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
     <row r="9">
@@ -3508,7 +3508,7 @@
         <is>
           <t>Lớp: CL05
 Môn: Tiếng Anh chuyên ngành
-GV: Võ Văn F
+GV: Hoàng Thị E
 (Lý thuyết)</t>
         </is>
       </c>
@@ -3516,8 +3516,8 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -3528,15 +3528,15 @@
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL05
-Môn: Kỹ năng mềm
-GV: Hoàng Thị E
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL10
+Môn: Tiếng Anh chuyên ngành
+GV: Hoàng Thị E
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
@@ -3548,7 +3548,7 @@
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
@@ -3559,7 +3559,7 @@
         <is>
           <t>Lớp: CL10
 Môn: Kỹ năng mềm
-GV: Ngô Văn I
+GV: Hoàng Thị E
 (Lý thuyết)</t>
         </is>
       </c>
